--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/main/ig/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
